--- a/后端数据处理/空教室信息.xlsx
+++ b/后端数据处理/空教室信息.xlsx
@@ -1,65 +1,85 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="600" yWindow="105" windowWidth="20475" windowHeight="9630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>楼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>楼层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>教室号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>起始周</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>结束周</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>时间段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>教室类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>教室规模</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通教室</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多媒体教室</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -88,16 +108,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -393,44 +418,165 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="1">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>17</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="1">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/后端数据处理/空教室信息.xlsx
+++ b/后端数据处理/空教室信息.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>楼</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -43,22 +43,6 @@
   </si>
   <si>
     <t>时间段</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>教室类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>教室规模</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通教室</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>多媒体教室</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -418,18 +402,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,14 +432,8 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -480,14 +455,8 @@
       <c r="G2" s="1">
         <v>1</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="1">
-        <v>208</v>
-      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -509,14 +478,8 @@
       <c r="G3" s="1">
         <v>2</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="1">
-        <v>208</v>
-      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -538,14 +501,8 @@
       <c r="G4" s="1">
         <v>2</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="1">
-        <v>190</v>
-      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -566,12 +523,6 @@
       </c>
       <c r="G5" s="1">
         <v>3</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="1">
-        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +535,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
@@ -597,7 +550,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
